--- a/biology/Botanique/Peniocereus_greggii/Peniocereus_greggii.xlsx
+++ b/biology/Botanique/Peniocereus_greggii/Peniocereus_greggii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peniocereus greggii est une espèce de plantes à fleurs de la famille des Cactaceae, originaire du continent nord-américain.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce cactus de 30 à 90 cm de hauteur est constitué d'un petit nombre de tiges rameuses, anguleuses et peu charnues. De loin, l'ensemble ressemble à un petit buisson mort. Chaque tige a une épaisseur d'environ 2,5 cm et est parcourue par 4 à 6 côtes. Les épines sont disposées en groupes rayonnants assez peu nombreux, de 11 à 13 épines mesurant environ 3 mm de long. Elles sont souvent disposées à plat, presque parallèles à la surface de la tige. La racine est tubérisée et ressemble à un tubercule de navet[1]
-Appareil reproducteur
-La floraison a généralement lieu au mois de juin. Les fleurs isolées, blanches, ont un diamètre qui varie entre 5 et 7,5 cm et une longueur de 10 à 15 cm. Elles ont une odeur suave et possèdent de nombreux tépales ; elles ne s'ouvrent que le soir et la nuit[1].
-Le fruit est rouge vif, charnu, et forme de nombreuses graines.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cactus de 30 à 90 cm de hauteur est constitué d'un petit nombre de tiges rameuses, anguleuses et peu charnues. De loin, l'ensemble ressemble à un petit buisson mort. Chaque tige a une épaisseur d'environ 2,5 cm et est parcourue par 4 à 6 côtes. Les épines sont disposées en groupes rayonnants assez peu nombreux, de 11 à 13 épines mesurant environ 3 mm de long. Elles sont souvent disposées à plat, presque parallèles à la surface de la tige. La racine est tubérisée et ressemble à un tubercule de navet
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a généralement lieu au mois de juin. Les fleurs isolées, blanches, ont un diamètre qui varie entre 5 et 7,5 cm et une longueur de 10 à 15 cm. Elles ont une odeur suave et possèdent de nombreux tépales ; elles ne s'ouvrent que le soir et la nuit.
+Le fruit est rouge vif, charnu, et forme de nombreuses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peniocereus_greggii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peniocereus_greggii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les replats des zones désertiques du sud-ouest du continent nord-américain, du sud de l'Arizona et de l'ouest du Texas, aux États-Unis, jusqu'au nord du Mexique.
 </t>
